--- a/results/Kitchen Little Texture Zoom PET.xlsx
+++ b/results/Kitchen Little Texture Zoom PET.xlsx
@@ -477,11 +477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="540374504"/>
-        <c:axId val="540376856"/>
+        <c:axId val="334757640"/>
+        <c:axId val="334758032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540374504"/>
+        <c:axId val="334757640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540376856"/>
+        <c:crossAx val="334758032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,7 +527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540376856"/>
+        <c:axId val="334758032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -573,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540374504"/>
+        <c:crossAx val="334757640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,11 +1474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="540374896"/>
-        <c:axId val="540376464"/>
+        <c:axId val="335956224"/>
+        <c:axId val="335953088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="540374896"/>
+        <c:axId val="335956224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540376464"/>
+        <c:crossAx val="335953088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540376464"/>
+        <c:axId val="335953088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1508,14 +1508,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540374896"/>
+        <c:crossAx val="335956224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1880,11 +1879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="540372936"/>
-        <c:axId val="540377248"/>
+        <c:axId val="335953872"/>
+        <c:axId val="335952304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540372936"/>
+        <c:axId val="335953872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540377248"/>
+        <c:crossAx val="335952304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540377248"/>
+        <c:axId val="335952304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1976,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540372936"/>
+        <c:crossAx val="335953872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3246,35 +3245,35 @@
         <v>0.30848199999999998</v>
       </c>
       <c r="C31">
-        <f>C7/$B31</f>
+        <f t="shared" ref="C31:I31" si="1">C7/$B31</f>
         <v>1.8061118639012974</v>
       </c>
       <c r="D31">
-        <f>D7/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.80275024150517704</v>
       </c>
       <c r="E31">
-        <f>E7/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.86115235248734134</v>
       </c>
       <c r="F31">
-        <f>F7/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.233621410649568</v>
       </c>
       <c r="G31">
-        <f>G7/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.9408685109666044</v>
       </c>
       <c r="H31">
-        <f>H7/$B31</f>
+        <f t="shared" si="1"/>
         <v>1.3753087700416882</v>
       </c>
       <c r="I31">
-        <f>I7/$B31</f>
+        <f t="shared" si="1"/>
         <v>0.76814854675475397</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J43" si="1">MIN(G31:I31)</f>
+        <f t="shared" ref="J31:J43" si="2">MIN(G31:I31)</f>
         <v>0.76814854675475397</v>
       </c>
     </row>
@@ -3288,41 +3287,41 @@
         <v>0.50609000000000004</v>
       </c>
       <c r="C32">
-        <f>C10/$B32</f>
+        <f t="shared" ref="C32:I32" si="3">C10/$B32</f>
         <v>0.72032247228753765</v>
       </c>
       <c r="D32">
-        <f>D10/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.46208381908356222</v>
       </c>
       <c r="E32">
-        <f>E10/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.6305321187931</v>
       </c>
       <c r="F32">
-        <f>F10/$B32</f>
+        <f t="shared" si="3"/>
         <v>1.488810290659764</v>
       </c>
       <c r="G32">
-        <f>G10/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.68817206425734545</v>
       </c>
       <c r="H32">
-        <f>H10/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.71111462388112778</v>
       </c>
       <c r="I32">
-        <f>I10/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.48102906597640732</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48102906597640732</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A43" si="2">A32+1</f>
+        <f t="shared" ref="A33:A43" si="4">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3330,335 +3329,335 @@
         <v>0.14192099999999999</v>
       </c>
       <c r="C33">
-        <f>C12/$B33</f>
+        <f t="shared" ref="C33:I33" si="5">C12/$B33</f>
         <v>1.2577349370424391</v>
       </c>
       <c r="D33">
-        <f>D12/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.91068974993129981</v>
       </c>
       <c r="E33">
-        <f>E12/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.88858590342514499</v>
       </c>
       <c r="F33">
-        <f>F12/$B33</f>
+        <f t="shared" si="5"/>
         <v>0.9273891813050924</v>
       </c>
       <c r="G33">
-        <f>G12/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.1288533761740687</v>
       </c>
       <c r="H33">
-        <f>H12/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.2709676510171153</v>
       </c>
       <c r="I33">
-        <f>I12/$B33</f>
+        <f t="shared" si="5"/>
         <v>1.0608859858653759</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0608859858653759</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B40" si="6">B15</f>
+        <v>1.0426</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:I40" si="7">C15/$B34</f>
+        <v>2.076510646460771</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>0.86391808939190484</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>0.81163533474007299</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>1.0435929407251103</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>0.69790427776712072</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>1.0135430654133897</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>0.85447918664876277</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <f>B15</f>
-        <v>1.0426</v>
-      </c>
-      <c r="C34">
-        <f>C15/$B34</f>
-        <v>2.076510646460771</v>
-      </c>
-      <c r="D34">
-        <f>D15/$B34</f>
-        <v>0.86391808939190484</v>
-      </c>
-      <c r="E34">
-        <f>E15/$B34</f>
-        <v>0.81163533474007299</v>
-      </c>
-      <c r="F34">
-        <f>F15/$B34</f>
-        <v>1.0435929407251103</v>
-      </c>
-      <c r="G34">
-        <f>G15/$B34</f>
-        <v>0.69790427776712072</v>
-      </c>
-      <c r="H34">
-        <f>H15/$B34</f>
-        <v>1.0135430654133897</v>
-      </c>
-      <c r="I34">
-        <f>I15/$B34</f>
-        <v>0.85447918664876277</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
         <v>0.69790427776712072</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>0.31331999999999999</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>0.75638644197625438</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>0.99543278437380323</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>0.79088152687348401</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>0.72798097791395378</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>0.89860525979828931</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>1.7941337929273589</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>0.83068747606281113</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <f>B16</f>
-        <v>0.31331999999999999</v>
-      </c>
-      <c r="C35">
-        <f>C16/$B35</f>
-        <v>0.75638644197625438</v>
-      </c>
-      <c r="D35">
-        <f>D16/$B35</f>
-        <v>0.99543278437380323</v>
-      </c>
-      <c r="E35">
-        <f>E16/$B35</f>
-        <v>0.79088152687348401</v>
-      </c>
-      <c r="F35">
-        <f>F16/$B35</f>
-        <v>0.72798097791395378</v>
-      </c>
-      <c r="G35">
-        <f>G16/$B35</f>
-        <v>0.89860525979828931</v>
-      </c>
-      <c r="H35">
-        <f>H16/$B35</f>
-        <v>1.7941337929273589</v>
-      </c>
-      <c r="I35">
-        <f>I16/$B35</f>
-        <v>0.83068747606281113</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
         <v>0.83068747606281113</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>0.216503</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>1.0736248458450923</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="7"/>
+        <v>0.9970162076276079</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0.8149171143125038</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>0.96444852958157623</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>0.92398257760862434</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>2.1310235885876869</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>1.0983034877114866</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f>B17</f>
-        <v>0.216503</v>
-      </c>
-      <c r="C36">
-        <f>C17/$B36</f>
-        <v>1.0736248458450923</v>
-      </c>
-      <c r="D36">
-        <f>D17/$B36</f>
-        <v>0.9970162076276079</v>
-      </c>
-      <c r="E36">
-        <f>E17/$B36</f>
-        <v>0.8149171143125038</v>
-      </c>
-      <c r="F36">
-        <f>F17/$B36</f>
-        <v>0.96444852958157623</v>
-      </c>
-      <c r="G36">
-        <f>G17/$B36</f>
-        <v>0.92398257760862434</v>
-      </c>
-      <c r="H36">
-        <f>H17/$B36</f>
-        <v>2.1310235885876869</v>
-      </c>
-      <c r="I36">
-        <f>I17/$B36</f>
-        <v>1.0983034877114866</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
         <v>0.92398257760862434</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="6"/>
+        <v>0.201763</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>1.7352091315057765</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="7"/>
+        <v>0.85108766225720278</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>0.81300833155732211</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>1.1051431630179964</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>0.90148342362078282</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>1.2965509037831515</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>1.6240242264438971</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f>B18</f>
-        <v>0.201763</v>
-      </c>
-      <c r="C37">
-        <f>C18/$B37</f>
-        <v>1.7352091315057765</v>
-      </c>
-      <c r="D37">
-        <f>D18/$B37</f>
-        <v>0.85108766225720278</v>
-      </c>
-      <c r="E37">
-        <f>E18/$B37</f>
-        <v>0.81300833155732211</v>
-      </c>
-      <c r="F37">
-        <f>F18/$B37</f>
-        <v>1.1051431630179964</v>
-      </c>
-      <c r="G37">
-        <f>G18/$B37</f>
-        <v>0.90148342362078282</v>
-      </c>
-      <c r="H37">
-        <f>H18/$B37</f>
-        <v>1.2965509037831515</v>
-      </c>
-      <c r="I37">
-        <f>I18/$B37</f>
-        <v>1.6240242264438971</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
         <v>0.90148342362078282</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="6"/>
+        <v>0.40653299999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>5.4809080689636511</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="7"/>
+        <v>0.59885421355707902</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>0.57043339655083358</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>1.3666221438358017</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>0.8155992256471184</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>3.0195826661058267</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>1.7239338503885295</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f>B19</f>
-        <v>0.40653299999999998</v>
-      </c>
-      <c r="C38">
-        <f>C19/$B38</f>
-        <v>5.4809080689636511</v>
-      </c>
-      <c r="D38">
-        <f>D19/$B38</f>
-        <v>0.59885421355707902</v>
-      </c>
-      <c r="E38">
-        <f>E19/$B38</f>
-        <v>0.57043339655083358</v>
-      </c>
-      <c r="F38">
-        <f>F19/$B38</f>
-        <v>1.3666221438358017</v>
-      </c>
-      <c r="G38">
-        <f>G19/$B38</f>
-        <v>0.8155992256471184</v>
-      </c>
-      <c r="H38">
-        <f>H19/$B38</f>
-        <v>3.0195826661058267</v>
-      </c>
-      <c r="I38">
-        <f>I19/$B38</f>
-        <v>1.7239338503885295</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
         <v>0.8155992256471184</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>0.29729100000000003</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="7"/>
+        <v>0.75859006831690157</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="7"/>
+        <v>1.1290385514529533</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>0.97033882626786538</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>1.0232802203901226</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>1.0443605760012915</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>1.0982135348866933</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>1.1617068797911809</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <f>B20</f>
-        <v>0.29729100000000003</v>
-      </c>
-      <c r="C39">
-        <f>C20/$B39</f>
-        <v>0.75859006831690157</v>
-      </c>
-      <c r="D39">
-        <f>D20/$B39</f>
-        <v>1.1290385514529533</v>
-      </c>
-      <c r="E39">
-        <f>E20/$B39</f>
-        <v>0.97033882626786538</v>
-      </c>
-      <c r="F39">
-        <f>F20/$B39</f>
-        <v>1.0232802203901226</v>
-      </c>
-      <c r="G39">
-        <f>G20/$B39</f>
-        <v>1.0443605760012915</v>
-      </c>
-      <c r="H39">
-        <f>H20/$B39</f>
-        <v>1.0982135348866933</v>
-      </c>
-      <c r="I39">
-        <f>I20/$B39</f>
-        <v>1.1617068797911809</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
         <v>1.0443605760012915</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="6"/>
+        <v>0.23424900000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>1.5901327220180235</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="7"/>
+        <v>0.85799299036495347</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>0.75440236671234451</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>0.96514392804238225</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>0.81340368582149758</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>0.75188367933267586</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>0.88330366404979321</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <f>B21</f>
-        <v>0.23424900000000001</v>
-      </c>
-      <c r="C40">
-        <f>C21/$B40</f>
-        <v>1.5901327220180235</v>
-      </c>
-      <c r="D40">
-        <f>D21/$B40</f>
-        <v>0.85799299036495347</v>
-      </c>
-      <c r="E40">
-        <f>E21/$B40</f>
-        <v>0.75440236671234451</v>
-      </c>
-      <c r="F40">
-        <f>F21/$B40</f>
-        <v>0.96514392804238225</v>
-      </c>
-      <c r="G40">
-        <f>G21/$B40</f>
-        <v>0.81340368582149758</v>
-      </c>
-      <c r="H40">
-        <f>H21/$B40</f>
-        <v>0.75188367933267586</v>
-      </c>
-      <c r="I40">
-        <f>I21/$B40</f>
-        <v>0.88330366404979321</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
         <v>0.75188367933267586</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B41">
@@ -3666,41 +3665,41 @@
         <v>0.226074</v>
       </c>
       <c r="C41">
-        <f>C23/$B41</f>
+        <f t="shared" ref="C41:I41" si="8">C23/$B41</f>
         <v>1.1927775861001266</v>
       </c>
       <c r="D41">
-        <f>D23/$B41</f>
+        <f t="shared" si="8"/>
         <v>0.97096525916292897</v>
       </c>
       <c r="E41">
-        <f>E23/$B41</f>
+        <f t="shared" si="8"/>
         <v>0.7820846271574794</v>
       </c>
       <c r="F41">
-        <f>F23/$B41</f>
+        <f t="shared" si="8"/>
         <v>0.9329290409334996</v>
       </c>
       <c r="G41">
-        <f>G23/$B41</f>
+        <f t="shared" si="8"/>
         <v>1.2999902686730893</v>
       </c>
       <c r="H41">
-        <f>H23/$B41</f>
+        <f t="shared" si="8"/>
         <v>1.1160018401054521</v>
       </c>
       <c r="I41">
-        <f>I23/$B41</f>
+        <f t="shared" si="8"/>
         <v>1.0922839424259314</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0922839424259314</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B42">
@@ -3708,41 +3707,41 @@
         <v>0.141676</v>
       </c>
       <c r="C42">
-        <f>C25/$B42</f>
+        <f t="shared" ref="C42:I43" si="9">C25/$B42</f>
         <v>1.2644837516587142</v>
       </c>
       <c r="D42">
-        <f>D25/$B42</f>
+        <f t="shared" si="9"/>
         <v>0.98757728902566433</v>
       </c>
       <c r="E42">
-        <f>E25/$B42</f>
+        <f t="shared" si="9"/>
         <v>0.90183940822722264</v>
       </c>
       <c r="F42">
-        <f>F25/$B42</f>
+        <f t="shared" si="9"/>
         <v>1.1373980067195575</v>
       </c>
       <c r="G42">
-        <f>G25/$B42</f>
+        <f t="shared" si="9"/>
         <v>1.0751503430362235</v>
       </c>
       <c r="H42">
-        <f>H25/$B42</f>
+        <f t="shared" si="9"/>
         <v>2.3227575595019623</v>
       </c>
       <c r="I42">
-        <f>I25/$B42</f>
+        <f t="shared" si="9"/>
         <v>3.0784042463084789</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0751503430362235</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B43">
@@ -3750,35 +3749,35 @@
         <v>0.34120400000000001</v>
       </c>
       <c r="C43">
-        <f>C26/$B43</f>
+        <f t="shared" si="9"/>
         <v>1.6768150431999624</v>
       </c>
       <c r="D43">
-        <f>D26/$B43</f>
+        <f t="shared" si="9"/>
         <v>1.2651258484660204</v>
       </c>
       <c r="E43">
-        <f>E26/$B43</f>
+        <f t="shared" si="9"/>
         <v>1.2417732500205156</v>
       </c>
       <c r="F43">
-        <f>F26/$B43</f>
+        <f t="shared" si="9"/>
         <v>0.88803472409467654</v>
       </c>
       <c r="G43">
-        <f>G26/$B43</f>
+        <f t="shared" si="9"/>
         <v>0.94267945276139786</v>
       </c>
       <c r="H43">
-        <f>H26/$B43</f>
+        <f t="shared" si="9"/>
         <v>1.3604588457345166</v>
       </c>
       <c r="I43">
-        <f>I26/$B43</f>
+        <f t="shared" si="9"/>
         <v>1.4875441085098651</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94267945276139786</v>
       </c>
     </row>

--- a/results/Kitchen Little Texture Zoom PET.xlsx
+++ b/results/Kitchen Little Texture Zoom PET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -68,6 +68,21 @@
   <si>
     <t>PCA</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg*1000</t>
+  </si>
+  <si>
+    <t>avg1000</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +113,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +179,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>Sheet1!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -165,7 +191,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$43</c:f>
+              <c:f>Sheet1!$C$33:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -217,7 +243,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
+              <c:f>Sheet1!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,7 +255,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31:$D$43</c:f>
+              <c:f>Sheet1!$D$33:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -281,7 +307,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$30</c:f>
+              <c:f>Sheet1!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,7 +319,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$E$43</c:f>
+              <c:f>Sheet1!$E$33:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -345,7 +371,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$30</c:f>
+              <c:f>Sheet1!$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -357,7 +383,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$43</c:f>
+              <c:f>Sheet1!$F$33:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -409,7 +435,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$30</c:f>
+              <c:f>Sheet1!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -421,7 +447,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$31:$J$43</c:f>
+              <c:f>Sheet1!$J$33:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -477,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="334757640"/>
-        <c:axId val="334758032"/>
+        <c:axId val="221489776"/>
+        <c:axId val="221490560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="334757640"/>
+        <c:axId val="221489776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334758032"/>
+        <c:crossAx val="221490560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334758032"/>
+        <c:axId val="221490560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -573,7 +599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334757640"/>
+        <c:crossAx val="221489776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,11 +1500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="335956224"/>
-        <c:axId val="335953088"/>
+        <c:axId val="221493304"/>
+        <c:axId val="221487816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335956224"/>
+        <c:axId val="221493304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335953088"/>
+        <c:crossAx val="221487816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335953088"/>
+        <c:axId val="221487816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1508,13 +1534,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335956224"/>
+        <c:crossAx val="221493304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1555,7 +1582,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$30</c:f>
+              <c:f>Sheet1!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1567,7 +1594,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$43</c:f>
+              <c:f>Sheet1!$C$33:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1619,7 +1646,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$30</c:f>
+              <c:f>Sheet1!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,7 +1658,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31:$D$43</c:f>
+              <c:f>Sheet1!$D$33:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1683,7 +1710,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$30</c:f>
+              <c:f>Sheet1!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1695,7 +1722,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$E$43</c:f>
+              <c:f>Sheet1!$E$33:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1747,7 +1774,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$30</c:f>
+              <c:f>Sheet1!$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1759,7 +1786,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$31:$F$43</c:f>
+              <c:f>Sheet1!$F$33:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1811,7 +1838,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$30</c:f>
+              <c:f>Sheet1!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1823,7 +1850,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$31:$J$43</c:f>
+              <c:f>Sheet1!$J$33:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1879,11 +1906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="335953872"/>
-        <c:axId val="335952304"/>
+        <c:axId val="221492128"/>
+        <c:axId val="221487032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="335953872"/>
+        <c:axId val="221492128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335952304"/>
+        <c:crossAx val="221487032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +1956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335952304"/>
+        <c:axId val="221487032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1975,7 +2002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335953872"/>
+        <c:crossAx val="221492128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,7 +2057,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2069,16 +2096,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>185736</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595311</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2098,7 +2125,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6600825" y="5238749"/>
+    <xdr:pos x="14658975" y="5238749"/>
     <xdr:ext cx="6191249" cy="4676775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2409,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,13 +2447,13 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2454,8 +2481,11 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2483,8 +2513,12 @@
       <c r="I4">
         <v>0.63814599999999999</v>
       </c>
+      <c r="J4">
+        <f>MIN(G4:I4)</f>
+        <v>0.63814599999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -2513,10 +2547,14 @@
       <c r="I5">
         <v>0.16698399999999999</v>
       </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J29" si="0">MIN(G5:I5)</f>
+        <v>0.16698399999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <f t="shared" ref="A6:A28" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6">
@@ -2543,10 +2581,14 @@
       <c r="I6">
         <v>0.45092399999999999</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.255749</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B7">
@@ -2573,10 +2615,14 @@
       <c r="I7">
         <v>0.23696</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.23696</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B8">
@@ -2603,10 +2649,14 @@
       <c r="I8">
         <v>1.36629</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.900779</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B9">
@@ -2633,10 +2683,14 @@
       <c r="I9">
         <v>0.22375</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.16772599999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B10">
@@ -2663,10 +2717,14 @@
       <c r="I10">
         <v>0.24344399999999999</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.24344399999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B11">
@@ -2693,10 +2751,14 @@
       <c r="I11">
         <v>0.79935599999999996</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.39772999999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B12">
@@ -2723,10 +2785,14 @@
       <c r="I12">
         <v>0.150562</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.150562</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B13">
@@ -2753,10 +2819,14 @@
       <c r="I13">
         <v>0.50229599999999996</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.18243999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14">
@@ -2783,10 +2853,14 @@
       <c r="I14">
         <v>2.0052099999999999</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.38995099999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B15">
@@ -2813,10 +2887,14 @@
       <c r="I15">
         <v>0.89088000000000001</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.72763500000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16">
@@ -2843,10 +2921,14 @@
       <c r="I16">
         <v>0.26027099999999997</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.26027099999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17">
@@ -2873,10 +2955,14 @@
       <c r="I17">
         <v>0.237786</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.200045</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B18">
@@ -2903,10 +2989,14 @@
       <c r="I18">
         <v>0.32766800000000001</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.18188599999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B19">
@@ -2933,10 +3023,14 @@
       <c r="I19">
         <v>0.70083600000000001</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.33156799999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B20">
@@ -2963,10 +3057,14 @@
       <c r="I20">
         <v>0.34536499999999998</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.310479</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B21">
@@ -2993,10 +3091,14 @@
       <c r="I21">
         <v>0.20691300000000001</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.17612800000000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B22">
@@ -3023,10 +3125,14 @@
       <c r="I22">
         <v>1.2083600000000001</v>
       </c>
+      <c r="J22">
+        <f>MIN(G22:I22)</f>
+        <v>0.30419099999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B23">
@@ -3053,10 +3159,14 @@
       <c r="I23">
         <v>0.24693699999999999</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.24693699999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B24">
@@ -3083,10 +3193,14 @@
       <c r="I24">
         <v>0.90802899999999998</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.38088300000000003</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B25">
@@ -3113,10 +3227,14 @@
       <c r="I25">
         <v>0.43613600000000002</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.15232299999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B26">
@@ -3143,10 +3261,14 @@
       <c r="I26">
         <v>0.50755600000000001</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.32164599999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B27">
@@ -3173,10 +3295,14 @@
       <c r="I27">
         <v>0.89158199999999999</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.24235599999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B28">
@@ -3203,582 +3329,1157 @@
       <c r="I28">
         <v>0.14643900000000001</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.14643900000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B4:B28)</f>
+        <v>0.34905203999999995</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:I29" si="2">AVERAGE(C4:C28)</f>
+        <v>0.61181167999999997</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.35141928</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.31680623999999996</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.38196519999999995</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0.34195724</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.59806236000000013</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.56394720000000009</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.34195724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <f>C29*1000</f>
+        <v>611.81168000000002</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:J30" si="3">D29*1000</f>
+        <v>351.41928000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>316.80623999999995</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>381.96519999999992</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>341.95724000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>598.06236000000013</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>563.94720000000007</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>341.95724000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>4</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>6</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J32" t="s">
         <v>10</v>
       </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <f>B7</f>
         <v>0.30848199999999998</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:I31" si="1">C7/$B31</f>
+      <c r="C33">
+        <f t="shared" ref="C33:I33" si="4">C7/$B33</f>
         <v>1.8061118639012974</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
+      <c r="D33">
+        <f t="shared" si="4"/>
         <v>0.80275024150517704</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
+      <c r="E33">
+        <f t="shared" si="4"/>
         <v>0.86115235248734134</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
+      <c r="F33">
+        <f t="shared" si="4"/>
         <v>1.233621410649568</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
+      <c r="G33">
+        <f t="shared" si="4"/>
         <v>0.9408685109666044</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
+      <c r="H33">
+        <f t="shared" si="4"/>
         <v>1.3753087700416882</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
+      <c r="I33">
+        <f t="shared" si="4"/>
         <v>0.76814854675475397</v>
       </c>
-      <c r="J31">
-        <f t="shared" ref="J31:J43" si="2">MIN(G31:I31)</f>
+      <c r="J33">
+        <f t="shared" ref="J33:J45" si="5">MIN(G33:I33)</f>
         <v>0.76814854675475397</v>
       </c>
+      <c r="L33">
+        <f>MIN(C33:J33)</f>
+        <v>0.76814854675475397</v>
+      </c>
+      <c r="M33">
+        <f>IF($L33=C33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:Q45" si="6">IF($L33=D33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>IF($L33=J33,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>A31+1</f>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A33+1</f>
         <v>2</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <f>B10</f>
         <v>0.50609000000000004</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C10/$B32</f>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="7">C10/$B34</f>
         <v>0.72032247228753765</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="3"/>
+      <c r="D34">
+        <f t="shared" si="7"/>
         <v>0.46208381908356222</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
+      <c r="E34">
+        <f t="shared" si="7"/>
         <v>0.6305321187931</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
+      <c r="F34">
+        <f t="shared" si="7"/>
         <v>1.488810290659764</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
+      <c r="G34">
+        <f t="shared" si="7"/>
         <v>0.68817206425734545</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
+      <c r="H34">
+        <f t="shared" si="7"/>
         <v>0.71111462388112778</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
+      <c r="I34">
+        <f t="shared" si="7"/>
         <v>0.48102906597640732</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
+      <c r="J34">
+        <f t="shared" si="5"/>
         <v>0.48102906597640732</v>
       </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L45" si="8">MIN(C34:J34)</f>
+        <v>0.46208381908356222</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34:M45" si="9">IF($L34=C34,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q45" si="10">IF($L34=J34,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A43" si="4">A32+1</f>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:A45" si="11">A34+1</f>
         <v>3</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <f>B12</f>
         <v>0.14192099999999999</v>
       </c>
-      <c r="C33">
-        <f t="shared" ref="C33:I33" si="5">C12/$B33</f>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="12">C12/$B35</f>
         <v>1.2577349370424391</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
+      <c r="D35">
+        <f t="shared" si="12"/>
         <v>0.91068974993129981</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
+      <c r="E35">
+        <f t="shared" si="12"/>
         <v>0.88858590342514499</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
+      <c r="F35">
+        <f t="shared" si="12"/>
         <v>0.9273891813050924</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
+      <c r="G35">
+        <f t="shared" si="12"/>
         <v>1.1288533761740687</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
+      <c r="H35">
+        <f t="shared" si="12"/>
         <v>1.2709676510171153</v>
       </c>
-      <c r="I33">
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>1.0608859858653759</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="5"/>
         <v>1.0608859858653759</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>1.0608859858653759</v>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>0.88858590342514499</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="4"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="B34">
-        <f t="shared" ref="B34:B40" si="6">B15</f>
+      <c r="B36">
+        <f>B15</f>
         <v>1.0426</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I40" si="7">C15/$B34</f>
+      <c r="C36">
+        <f>C15/$B36</f>
         <v>2.076510646460771</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="7"/>
+      <c r="D36">
+        <f>D15/$B36</f>
         <v>0.86391808939190484</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
+      <c r="E36">
+        <f>E15/$B36</f>
         <v>0.81163533474007299</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
+      <c r="F36">
+        <f>F15/$B36</f>
         <v>1.0435929407251103</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
+      <c r="G36">
+        <f>G15/$B36</f>
         <v>0.69790427776712072</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
+      <c r="H36">
+        <f>H15/$B36</f>
         <v>1.0135430654133897</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
+      <c r="I36">
+        <f>I15/$B36</f>
         <v>0.85447918664876277</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
+      <c r="J36">
+        <f t="shared" si="5"/>
         <v>0.69790427776712072</v>
       </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>0.69790427776712072</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="4"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="B37">
+        <f>B16</f>
+        <v>0.31331999999999999</v>
+      </c>
+      <c r="C37">
+        <f>C16/$B37</f>
+        <v>0.75638644197625438</v>
+      </c>
+      <c r="D37">
+        <f>D16/$B37</f>
+        <v>0.99543278437380323</v>
+      </c>
+      <c r="E37">
+        <f>E16/$B37</f>
+        <v>0.79088152687348401</v>
+      </c>
+      <c r="F37">
+        <f>F16/$B37</f>
+        <v>0.72798097791395378</v>
+      </c>
+      <c r="G37">
+        <f>G16/$B37</f>
+        <v>0.89860525979828931</v>
+      </c>
+      <c r="H37">
+        <f>H16/$B37</f>
+        <v>1.7941337929273589</v>
+      </c>
+      <c r="I37">
+        <f>I16/$B37</f>
+        <v>0.83068747606281113</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.83068747606281113</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>0.72798097791395378</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="6"/>
-        <v>0.31331999999999999</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="7"/>
-        <v>0.75638644197625438</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="7"/>
-        <v>0.99543278437380323</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="7"/>
-        <v>0.79088152687348401</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>0.72798097791395378</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
-        <v>0.89860525979828931</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="7"/>
-        <v>1.7941337929273589</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="7"/>
-        <v>0.83068747606281113</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>0.83068747606281113</v>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="4"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="B36">
+      <c r="B38">
+        <f>B17</f>
+        <v>0.216503</v>
+      </c>
+      <c r="C38">
+        <f>C17/$B38</f>
+        <v>1.0736248458450923</v>
+      </c>
+      <c r="D38">
+        <f>D17/$B38</f>
+        <v>0.9970162076276079</v>
+      </c>
+      <c r="E38">
+        <f>E17/$B38</f>
+        <v>0.8149171143125038</v>
+      </c>
+      <c r="F38">
+        <f>F17/$B38</f>
+        <v>0.96444852958157623</v>
+      </c>
+      <c r="G38">
+        <f>G17/$B38</f>
+        <v>0.92398257760862434</v>
+      </c>
+      <c r="H38">
+        <f>H17/$B38</f>
+        <v>2.1310235885876869</v>
+      </c>
+      <c r="I38">
+        <f>I17/$B38</f>
+        <v>1.0983034877114866</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.92398257760862434</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>0.8149171143125038</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="6"/>
-        <v>0.216503</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="7"/>
-        <v>1.0736248458450923</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="7"/>
-        <v>0.9970162076276079</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="7"/>
-        <v>0.8149171143125038</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="7"/>
-        <v>0.96444852958157623</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="7"/>
-        <v>0.92398257760862434</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="7"/>
-        <v>2.1310235885876869</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="7"/>
-        <v>1.0983034877114866</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
-        <v>0.92398257760862434</v>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="4"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="B39">
+        <f>B18</f>
+        <v>0.201763</v>
+      </c>
+      <c r="C39">
+        <f>C18/$B39</f>
+        <v>1.7352091315057765</v>
+      </c>
+      <c r="D39">
+        <f>D18/$B39</f>
+        <v>0.85108766225720278</v>
+      </c>
+      <c r="E39">
+        <f>E18/$B39</f>
+        <v>0.81300833155732211</v>
+      </c>
+      <c r="F39">
+        <f>F18/$B39</f>
+        <v>1.1051431630179964</v>
+      </c>
+      <c r="G39">
+        <f>G18/$B39</f>
+        <v>0.90148342362078282</v>
+      </c>
+      <c r="H39">
+        <f>H18/$B39</f>
+        <v>1.2965509037831515</v>
+      </c>
+      <c r="I39">
+        <f>I18/$B39</f>
+        <v>1.6240242264438971</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.90148342362078282</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>0.81300833155732211</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="6"/>
-        <v>0.201763</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="7"/>
-        <v>1.7352091315057765</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="7"/>
-        <v>0.85108766225720278</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="7"/>
-        <v>0.81300833155732211</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
-        <v>1.1051431630179964</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="7"/>
-        <v>0.90148342362078282</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="7"/>
-        <v>1.2965509037831515</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="7"/>
-        <v>1.6240242264438971</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
-        <v>0.90148342362078282</v>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="4"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="B38">
+      <c r="B40">
+        <f>B19</f>
+        <v>0.40653299999999998</v>
+      </c>
+      <c r="C40">
+        <f>C19/$B40</f>
+        <v>5.4809080689636511</v>
+      </c>
+      <c r="D40">
+        <f>D19/$B40</f>
+        <v>0.59885421355707902</v>
+      </c>
+      <c r="E40">
+        <f>E19/$B40</f>
+        <v>0.57043339655083358</v>
+      </c>
+      <c r="F40">
+        <f>F19/$B40</f>
+        <v>1.3666221438358017</v>
+      </c>
+      <c r="G40">
+        <f>G19/$B40</f>
+        <v>0.8155992256471184</v>
+      </c>
+      <c r="H40">
+        <f>H19/$B40</f>
+        <v>3.0195826661058267</v>
+      </c>
+      <c r="I40">
+        <f>I19/$B40</f>
+        <v>1.7239338503885295</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.8155992256471184</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>0.57043339655083358</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="6"/>
-        <v>0.40653299999999998</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="7"/>
-        <v>5.4809080689636511</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="7"/>
-        <v>0.59885421355707902</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="7"/>
-        <v>0.57043339655083358</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
-        <v>1.3666221438358017</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="7"/>
-        <v>0.8155992256471184</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="7"/>
-        <v>3.0195826661058267</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
-        <v>1.7239338503885295</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
-        <v>0.8155992256471184</v>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="4"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="B41">
+        <f>B20</f>
+        <v>0.29729100000000003</v>
+      </c>
+      <c r="C41">
+        <f>C20/$B41</f>
+        <v>0.75859006831690157</v>
+      </c>
+      <c r="D41">
+        <f>D20/$B41</f>
+        <v>1.1290385514529533</v>
+      </c>
+      <c r="E41">
+        <f>E20/$B41</f>
+        <v>0.97033882626786538</v>
+      </c>
+      <c r="F41">
+        <f>F20/$B41</f>
+        <v>1.0232802203901226</v>
+      </c>
+      <c r="G41">
+        <f>G20/$B41</f>
+        <v>1.0443605760012915</v>
+      </c>
+      <c r="H41">
+        <f>H20/$B41</f>
+        <v>1.0982135348866933</v>
+      </c>
+      <c r="I41">
+        <f>I20/$B41</f>
+        <v>1.1617068797911809</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>1.0443605760012915</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>0.75859006831690157</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="6"/>
-        <v>0.29729100000000003</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="7"/>
-        <v>0.75859006831690157</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="7"/>
-        <v>1.1290385514529533</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="7"/>
-        <v>0.97033882626786538</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="7"/>
-        <v>1.0232802203901226</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="7"/>
-        <v>1.0443605760012915</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="7"/>
-        <v>1.0982135348866933</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>1.1617068797911809</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
-        <v>1.0443605760012915</v>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="4"/>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="B40">
+      <c r="B42">
+        <f>B21</f>
+        <v>0.23424900000000001</v>
+      </c>
+      <c r="C42">
+        <f>C21/$B42</f>
+        <v>1.5901327220180235</v>
+      </c>
+      <c r="D42">
+        <f>D21/$B42</f>
+        <v>0.85799299036495347</v>
+      </c>
+      <c r="E42">
+        <f>E21/$B42</f>
+        <v>0.75440236671234451</v>
+      </c>
+      <c r="F42">
+        <f>F21/$B42</f>
+        <v>0.96514392804238225</v>
+      </c>
+      <c r="G42">
+        <f>G21/$B42</f>
+        <v>0.81340368582149758</v>
+      </c>
+      <c r="H42">
+        <f>H21/$B42</f>
+        <v>0.75188367933267586</v>
+      </c>
+      <c r="I42">
+        <f>I21/$B42</f>
+        <v>0.88330366404979321</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>0.75188367933267586</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>0.75188367933267586</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="6"/>
-        <v>0.23424900000000001</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="7"/>
-        <v>1.5901327220180235</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="7"/>
-        <v>0.85799299036495347</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="7"/>
-        <v>0.75440236671234451</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="7"/>
-        <v>0.96514392804238225</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="7"/>
-        <v>0.81340368582149758</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="7"/>
-        <v>0.75188367933267586</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>0.88330366404979321</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
-        <v>0.75188367933267586</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="4"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <f>B23</f>
         <v>0.226074</v>
       </c>
-      <c r="C41">
-        <f t="shared" ref="C41:I41" si="8">C23/$B41</f>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="13">C23/$B43</f>
         <v>1.1927775861001266</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="8"/>
+      <c r="D43">
+        <f t="shared" si="13"/>
         <v>0.97096525916292897</v>
       </c>
-      <c r="E41">
+      <c r="E43">
+        <f t="shared" si="13"/>
+        <v>0.7820846271574794</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="13"/>
+        <v>0.9329290409334996</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="13"/>
+        <v>1.2999902686730893</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>1.1160018401054521</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="13"/>
+        <v>1.0922839424259314</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>1.0922839424259314</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="8"/>
         <v>0.7820846271574794</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="8"/>
-        <v>0.9329290409334996</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="8"/>
-        <v>1.2999902686730893</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="8"/>
-        <v>1.1160018401054521</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="8"/>
-        <v>1.0922839424259314</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
-        <v>1.0922839424259314</v>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="4"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <f>B25</f>
         <v>0.141676</v>
       </c>
-      <c r="C42">
-        <f t="shared" ref="C42:I43" si="9">C25/$B42</f>
+      <c r="C44">
+        <f>C25/$B44</f>
         <v>1.2644837516587142</v>
       </c>
-      <c r="D42">
+      <c r="D44">
+        <f>D25/$B44</f>
+        <v>0.98757728902566433</v>
+      </c>
+      <c r="E44">
+        <f>E25/$B44</f>
+        <v>0.90183940822722264</v>
+      </c>
+      <c r="F44">
+        <f>F25/$B44</f>
+        <v>1.1373980067195575</v>
+      </c>
+      <c r="G44">
+        <f>G25/$B44</f>
+        <v>1.0751503430362235</v>
+      </c>
+      <c r="H44">
+        <f>H25/$B44</f>
+        <v>2.3227575595019623</v>
+      </c>
+      <c r="I44">
+        <f>I25/$B44</f>
+        <v>3.0784042463084789</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>1.0751503430362235</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>0.90183940822722264</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="9"/>
-        <v>0.98757728902566433</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="9"/>
-        <v>0.90183940822722264</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="9"/>
-        <v>1.1373980067195575</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="9"/>
-        <v>1.0751503430362235</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="9"/>
-        <v>2.3227575595019623</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="9"/>
-        <v>3.0784042463084789</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
-        <v>1.0751503430362235</v>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="4"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <f>B26</f>
         <v>0.34120400000000001</v>
       </c>
-      <c r="C43">
+      <c r="C45">
+        <f>C26/$B45</f>
+        <v>1.6768150431999624</v>
+      </c>
+      <c r="D45">
+        <f>D26/$B45</f>
+        <v>1.2651258484660204</v>
+      </c>
+      <c r="E45">
+        <f>E26/$B45</f>
+        <v>1.2417732500205156</v>
+      </c>
+      <c r="F45">
+        <f>F26/$B45</f>
+        <v>0.88803472409467654</v>
+      </c>
+      <c r="G45">
+        <f>G26/$B45</f>
+        <v>0.94267945276139786</v>
+      </c>
+      <c r="H45">
+        <f>H26/$B45</f>
+        <v>1.3604588457345166</v>
+      </c>
+      <c r="I45">
+        <f>I26/$B45</f>
+        <v>1.4875441085098651</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.94267945276139786</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>0.88803472409467654</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="9"/>
-        <v>1.6768150431999624</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="9"/>
-        <v>1.2651258484660204</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="9"/>
-        <v>1.2417732500205156</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="9"/>
-        <v>0.88803472409467654</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="9"/>
-        <v>0.94267945276139786</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="9"/>
-        <v>1.3604588457345166</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="9"/>
-        <v>1.4875441085098651</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
-        <v>0.94267945276139786</v>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <f>AVERAGE(B33:B45)</f>
+        <v>0.33674661538461542</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:J46" si="14">AVERAGE(C33:C45)</f>
+        <v>1.645354429175119</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="14"/>
+        <v>0.89942559278462741</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>0.83319881208655633</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="14"/>
+        <v>1.0618765044514693</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>0.93623484939488122</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>1.4816569631783574</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>1.2419026666874824</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>0.87585219791234736</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="2">
+        <f>AVERAGE(M33:M45)*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" ref="N46:Q46" si="15">AVERAGE(N33:N45)*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="15"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="15"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="15"/>
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f>B46*1000</f>
+        <v>336.74661538461544</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:J47" si="16">C46*1000</f>
+        <v>1645.3544291751191</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="16"/>
+        <v>899.42559278462738</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="16"/>
+        <v>833.19881208655636</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="16"/>
+        <v>1061.8765044514694</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="16"/>
+        <v>936.23484939488117</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="16"/>
+        <v>1481.6569631783573</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="16"/>
+        <v>1241.9026666874825</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="16"/>
+        <v>875.85219791234738</v>
+      </c>
+      <c r="M47" s="3">
+        <f>ROUND(M46,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" ref="N47:Q47" si="17">ROUND(N46,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="17"/>
+        <v>46.15</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="17"/>
+        <v>15.38</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="17"/>
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>ROUND(B47,2)</f>
+        <v>336.75</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:J48" si="18">ROUND(C47,2)</f>
+        <v>1645.35</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="18"/>
+        <v>899.43</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="18"/>
+        <v>833.2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="18"/>
+        <v>1061.8800000000001</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="18"/>
+        <v>936.23</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="18"/>
+        <v>1481.66</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="18"/>
+        <v>1241.9000000000001</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="18"/>
+        <v>875.85</v>
       </c>
     </row>
   </sheetData>
